--- a/ZS-沪乍杭-线路任务单一览表-补定测_processed.xlsx
+++ b/ZS-沪乍杭-线路任务单一览表-补定测_processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF88BF39-1A89-411A-B83D-52088E895F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80E8A03-84B1-42E1-887F-BC778DC271ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="714" firstSheet="6" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="584">
   <si>
     <t>任务单序号</t>
   </si>
@@ -116,6 +116,63 @@
     <t>2025.5.22</t>
   </si>
   <si>
+    <t>2025.5.23</t>
+  </si>
+  <si>
+    <t>道路抄平</t>
+  </si>
+  <si>
+    <t>2025.05.24</t>
+  </si>
+  <si>
+    <t>2025.05.26</t>
+  </si>
+  <si>
+    <t>2025.05.27</t>
+  </si>
+  <si>
+    <t>2025.06.01</t>
+  </si>
+  <si>
+    <t>2025.06.03</t>
+  </si>
+  <si>
+    <t>2025.06.04</t>
+  </si>
+  <si>
+    <t>2025.06.05</t>
+  </si>
+  <si>
+    <t>2025.06.07</t>
+  </si>
+  <si>
+    <t>2025.06.08</t>
+  </si>
+  <si>
+    <t>2025.06.09</t>
+  </si>
+  <si>
+    <t>核补通所道路地形</t>
+  </si>
+  <si>
+    <t>2025.06.10</t>
+  </si>
+  <si>
+    <t>2025.06.11</t>
+  </si>
+  <si>
+    <t>2025.06.12</t>
+  </si>
+  <si>
+    <t>2025.06.13</t>
+  </si>
+  <si>
+    <t>2025.06.15</t>
+  </si>
+  <si>
+    <t>2025.06.16</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -1448,9 +1505,6 @@
     <t>32-36核补范围内电力塔位置，塔高，塔脚地形(范围详见CAD图) （优先测量）</t>
   </si>
   <si>
-    <t>核补此处道路地形并超平</t>
-  </si>
-  <si>
     <t>34-1核补范围内房屋地形（范围详见CAD）</t>
   </si>
   <si>
@@ -1700,76 +1754,88 @@
     <t>43-1核补范围内既有铁路梁底高程、道路高程及道路净空（范围详见CAD）</t>
   </si>
   <si>
-    <t>核补地形</t>
+    <t>33-1核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2025.5.23</t>
+    <t>33-2核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2025.05.24</t>
-  </si>
-  <si>
-    <t>2025.05.26</t>
-  </si>
-  <si>
-    <t>2025.05.27</t>
-  </si>
-  <si>
-    <t>2025.06.01</t>
-  </si>
-  <si>
-    <t>道路抄平</t>
+    <t>33-3核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>转坐标</t>
+    <t>33-4核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2025.06.03</t>
+    <t>33-5核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2025.06.04</t>
-  </si>
-  <si>
-    <t>2025.06.04</t>
+    <t>33-6核补此处道路地形并抄平</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>核补通所道路地形</t>
-  </si>
-  <si>
-    <t>2025.06.05</t>
-  </si>
-  <si>
-    <t>2025.06.07</t>
-  </si>
-  <si>
-    <t>2025.06.08</t>
-  </si>
-  <si>
-    <t>2025.06.09</t>
-  </si>
-  <si>
-    <t>2025.06.10</t>
-  </si>
-  <si>
-    <t>2025.06.11</t>
-  </si>
-  <si>
-    <t>2025.06.12</t>
-  </si>
-  <si>
-    <t>2025.06.13</t>
-  </si>
-  <si>
-    <t>2025.06.15</t>
-  </si>
-  <si>
-    <t>2025.06.16</t>
+    <t>33-7核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-8核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-9核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-10核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-11核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-12核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-13核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-14核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-15核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-16核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-17核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-18核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-19核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-20核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>33-21核补此处道路地形并抄平</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2293,8 +2359,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2306,8 +2372,8 @@
     <col min="5" max="5" width="13.875" style="12" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="12" customWidth="1"/>
     <col min="7" max="7" width="34.625" style="12" customWidth="1"/>
-    <col min="8" max="23" width="9" style="12" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="12"/>
+    <col min="8" max="24" width="9" style="12" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2346,7 +2412,9 @@
       <c r="D2" s="16">
         <v>5</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="16">
+        <v>5</v>
+      </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
@@ -2363,7 +2431,9 @@
       <c r="D3" s="16">
         <v>111</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="16">
+        <v>111</v>
+      </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
@@ -2380,7 +2450,9 @@
       <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
@@ -2397,7 +2469,9 @@
       <c r="D5" s="16">
         <v>6</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
@@ -2414,7 +2488,9 @@
       <c r="D6" s="16">
         <v>82</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
@@ -2488,7 +2564,9 @@
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16">
+        <v>3</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
@@ -2505,7 +2583,9 @@
       <c r="D11" s="16">
         <v>27</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16">
+        <v>27</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
@@ -2514,13 +2594,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>545</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
@@ -2529,13 +2613,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>551</v>
+        <v>18</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="16">
+        <v>6</v>
+      </c>
+      <c r="E13" s="16">
+        <v>2</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
@@ -2547,10 +2635,14 @@
         <v>9</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="16">
+        <v>7</v>
+      </c>
+      <c r="E14" s="16">
+        <v>7</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
@@ -2562,10 +2654,14 @@
         <v>9</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
@@ -2577,10 +2673,14 @@
         <v>9</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
@@ -2592,10 +2692,14 @@
         <v>9</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2</v>
+      </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
@@ -2604,13 +2708,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="D18" s="16">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2</v>
+      </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
@@ -2619,13 +2727,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="D19" s="16">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>2</v>
+      </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
     </row>
@@ -2634,13 +2746,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
     </row>
@@ -2649,13 +2765,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="D21" s="16">
+        <v>8</v>
+      </c>
+      <c r="E21" s="16">
+        <v>8</v>
+      </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
     </row>
@@ -2664,13 +2784,17 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
     </row>
@@ -2679,13 +2803,17 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="D23" s="16">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16">
+        <v>2</v>
+      </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
     </row>
@@ -2694,13 +2822,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
@@ -2712,10 +2844,14 @@
         <v>9</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="16">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
     </row>
@@ -2724,13 +2860,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="E26" s="16">
+        <v>2</v>
+      </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
     </row>
@@ -2742,10 +2882,14 @@
         <v>9</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="16">
+        <v>11</v>
+      </c>
+      <c r="E27" s="16">
+        <v>4</v>
+      </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
     </row>
@@ -2757,10 +2901,14 @@
         <v>9</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="16">
+        <v>23</v>
+      </c>
+      <c r="E28" s="16">
+        <v>7</v>
+      </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
@@ -2772,10 +2920,14 @@
         <v>9</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="16">
+        <v>41</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4</v>
+      </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
     </row>
@@ -2787,10 +2939,14 @@
         <v>9</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="16">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16">
+        <v>5</v>
+      </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
     </row>
@@ -2802,10 +2958,14 @@
         <v>9</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="16">
+        <v>5</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
     </row>
@@ -2817,10 +2977,14 @@
         <v>9</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="16">
+        <v>11</v>
+      </c>
+      <c r="E32" s="16">
+        <v>6</v>
+      </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
@@ -2832,10 +2996,14 @@
         <v>9</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="D33" s="16">
+        <v>36</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
     </row>
@@ -2844,13 +3012,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>556</v>
+        <v>29</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
     </row>
@@ -2862,10 +3034,14 @@
         <v>9</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="16">
+        <v>2</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
     </row>
@@ -2877,10 +3053,14 @@
         <v>9</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="D36" s="16">
+        <v>8</v>
+      </c>
+      <c r="E36" s="16">
+        <v>6</v>
+      </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
     </row>
@@ -2892,10 +3072,14 @@
         <v>9</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="D37" s="16">
+        <v>2</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
     </row>
@@ -2907,10 +3091,14 @@
         <v>9</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="D38" s="16">
+        <v>9</v>
+      </c>
+      <c r="E38" s="16">
+        <v>8</v>
+      </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
     </row>
@@ -2922,7 +3110,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>563</v>
+        <v>32</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
@@ -2937,10 +3125,14 @@
         <v>9</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="D40" s="16">
+        <v>27</v>
+      </c>
+      <c r="E40" s="16">
+        <v>1</v>
+      </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
     </row>
@@ -2952,10 +3144,14 @@
         <v>9</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="D41" s="16">
+        <v>16</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
     </row>
@@ -2967,10 +3163,14 @@
         <v>9</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="D42" s="16">
+        <v>8</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
     </row>
@@ -2982,10 +3182,14 @@
         <v>9</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="D43" s="16">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
     </row>
@@ -2997,10 +3201,14 @@
         <v>9</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
     </row>
@@ -3257,16 +3465,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3274,26 +3482,26 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,16 +3535,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3344,218 +3552,218 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3580,16 +3788,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3597,10 +3805,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3703,16 +3911,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3720,50 +3928,50 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3851,16 +4059,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3868,58 +4076,58 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4004,16 +4212,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4021,10 +4229,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4127,16 +4335,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4144,10 +4352,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4249,16 +4457,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4266,18 +4474,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4376,16 +4584,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4393,18 +4601,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4503,16 +4711,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4520,18 +4728,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4632,25 +4840,25 @@
     <col min="4" max="4" width="9" style="12" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="30.875" style="12" customWidth="1"/>
-    <col min="7" max="22" width="9" style="12" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="12"/>
+    <col min="7" max="23" width="9" style="12" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -4659,10 +4867,10 @@
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -4671,10 +4879,10 @@
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -4683,28 +4891,28 @@
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4769,16 +4977,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4786,10 +4994,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4891,16 +5099,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -4908,66 +5116,66 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5048,16 +5256,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5065,10 +5273,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5177,16 +5385,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5194,18 +5402,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5310,16 +5518,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5327,10 +5535,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5439,16 +5647,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5456,155 +5664,155 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5655,16 +5863,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5672,18 +5880,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5788,16 +5996,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5805,90 +6013,90 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5961,16 +6169,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -5978,178 +6186,178 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6176,16 +6384,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -6193,10 +6401,10 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6285,25 +6493,25 @@
     <col min="4" max="4" width="9" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="30.875" style="5" customWidth="1"/>
-    <col min="7" max="22" width="9" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="5"/>
+    <col min="7" max="23" width="9" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>6</v>
@@ -6312,10 +6520,10 @@
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
@@ -6324,10 +6532,10 @@
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -6336,10 +6544,10 @@
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -6348,10 +6556,10 @@
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -6360,10 +6568,10 @@
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -6372,10 +6580,10 @@
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -6384,10 +6592,10 @@
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -6396,10 +6604,10 @@
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -6408,10 +6616,10 @@
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -6420,10 +6628,10 @@
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -6432,10 +6640,10 @@
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -6444,10 +6652,10 @@
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -6455,10 +6663,10 @@
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -6466,10 +6674,10 @@
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
@@ -6477,10 +6685,10 @@
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -6488,10 +6696,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -6499,10 +6707,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -6510,10 +6718,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -6521,10 +6729,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6532,10 +6740,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6543,10 +6751,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -6554,10 +6762,10 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -6565,10 +6773,10 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -6576,10 +6784,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -6587,10 +6795,10 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -6598,10 +6806,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -6609,10 +6817,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -6620,10 +6828,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -6631,10 +6839,10 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -6642,10 +6850,10 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -6653,10 +6861,10 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -6664,10 +6872,10 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -6675,10 +6883,10 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -6686,10 +6894,10 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -6697,10 +6905,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -6708,10 +6916,10 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -6719,10 +6927,10 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -6730,10 +6938,10 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -6741,10 +6949,10 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -6752,10 +6960,10 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -6763,10 +6971,10 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -6774,10 +6982,10 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -6785,10 +6993,10 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -6796,10 +7004,10 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -6807,10 +7015,10 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -6818,10 +7026,10 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -6829,10 +7037,10 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -6840,10 +7048,10 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -6851,10 +7059,10 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -6862,10 +7070,10 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -6873,10 +7081,10 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -6884,10 +7092,10 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -6895,10 +7103,10 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -6906,10 +7114,10 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -6917,458 +7125,458 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="9" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="9" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="9" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="9" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="9" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="9" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="9" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="9" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="9" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="9" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="9" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="9" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="9" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="9" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="9" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="9" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="9" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="9" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="9" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="9" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="9" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="9" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="9" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="9" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="9" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="9" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="9" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="9" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -7399,16 +7607,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -7416,330 +7624,330 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7763,16 +7971,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -7780,106 +7988,106 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7921,16 +8129,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -7938,42 +8146,42 @@
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7997,16 +8205,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8014,90 +8222,90 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8121,16 +8329,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8138,290 +8346,290 @@
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8434,8 +8642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8445,124 +8653,124 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>461</v>
+      <c r="A2" s="23" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>461</v>
+      <c r="A3" s="23" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>461</v>
+      <c r="A4" s="23" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>461</v>
+      <c r="A5" s="23" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>461</v>
+      <c r="A6" s="23" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>461</v>
+      <c r="A7" s="23" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>461</v>
+      <c r="A8" s="23" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>461</v>
+      <c r="A9" s="23" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>461</v>
+      <c r="A10" s="23" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>461</v>
+      <c r="A11" s="23" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>461</v>
+      <c r="A12" s="23" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>461</v>
+      <c r="A13" s="23" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>461</v>
+      <c r="A14" s="23" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>461</v>
+      <c r="A15" s="23" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>461</v>
+      <c r="A16" s="23" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>461</v>
+      <c r="A17" s="23" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>461</v>
+      <c r="A18" s="23" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>461</v>
+      <c r="A19" s="23" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>461</v>
+      <c r="A20" s="23" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>461</v>
+      <c r="A21" s="23" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>461</v>
+      <c r="A22" s="23" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8631,16 +8839,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8648,18 +8856,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8784,16 +8992,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8801,66 +9009,66 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -8883,16 +9091,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8900,18 +9108,18 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8934,16 +9142,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -8951,74 +9159,74 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9043,16 +9251,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9060,18 +9268,18 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9101,16 +9309,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9118,218 +9326,218 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9352,16 +9560,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9369,130 +9577,130 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9515,16 +9723,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9532,66 +9740,66 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9614,16 +9822,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9631,82 +9839,82 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -9731,16 +9939,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9748,10 +9956,10 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9779,16 +9987,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9796,50 +10004,50 @@
     </row>
     <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9869,16 +10077,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -9886,659 +10094,659 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B75" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -10568,16 +10776,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -10585,10 +10793,10 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10633,16 +10841,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -10650,18 +10858,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10703,16 +10911,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -10720,18 +10928,18 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/ZS-沪乍杭-线路任务单一览表-补定测_processed.xlsx
+++ b/ZS-沪乍杭-线路任务单一览表-补定测_processed.xlsx
@@ -803,7 +803,7 @@
         <v>82</v>
       </c>
       <c r="E6" s="16" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="F6" s="16" t="n"/>
       <c r="G6" s="16" t="n"/>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="16" t="n"/>
       <c r="G12" s="16" t="n"/>
@@ -1286,7 +1286,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F27" s="16" t="n"/>
       <c r="G27" s="16" t="n"/>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B2" s="23" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="B6" s="23" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="B7" s="23" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B8" s="23" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="B9" s="23" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11433,7 +11433,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="C14" s="23" t="n"/>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11530,7 +11530,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11566,7 +11566,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11578,7 +11578,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11614,7 +11614,7 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11686,7 +11686,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11770,7 +11770,7 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11782,7 +11782,7 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11818,7 +11818,7 @@
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11842,7 +11842,7 @@
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11866,7 +11866,7 @@
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11890,7 +11890,7 @@
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11926,7 +11926,7 @@
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11986,7 +11986,7 @@
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -11998,7 +11998,7 @@
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12010,7 +12010,7 @@
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12022,7 +12022,7 @@
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12058,7 +12058,7 @@
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12094,7 +12094,7 @@
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12118,7 +12118,7 @@
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12130,7 +12130,7 @@
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12202,7 +12202,7 @@
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12226,7 +12226,7 @@
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12238,7 +12238,7 @@
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12262,7 +12262,7 @@
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12274,7 +12274,7 @@
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12286,7 +12286,7 @@
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
